--- a/entradas.xlsx
+++ b/entradas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Insper\5-Semestre\TransCal\P2\TransCal-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394DE262-7DDB-40B3-B75E-3EECA5E54A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A0A904-C04A-4FC0-80E5-595C9A354F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Nós</t>
+  </si>
+  <si>
+    <t>Coordenada X</t>
+  </si>
+  <si>
+    <t>Coordenada Y</t>
+  </si>
+  <si>
+    <t>Módulo de Elasticidade</t>
+  </si>
+  <si>
+    <t>Área</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,8 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,57 +358,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
-        <v>1</v>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
-      <c r="C1">
-        <v>1</v>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/entradas.xlsx
+++ b/entradas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Insper\5-Semestre\TransCal\P2\TransCal-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A0A904-C04A-4FC0-80E5-595C9A354F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEBDA2B-B7E7-4705-9AD4-7624F256519A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,8 +46,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -77,7 +85,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -388,21 +396,65 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/entradas.xlsx
+++ b/entradas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Insper\5-Semestre\TransCal\P2\TransCal-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEBDA2B-B7E7-4705-9AD4-7624F256519A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D897A4-F39E-4C83-8B51-3723AA454457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,7 +369,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -400,9 +400,15 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
     </row>
@@ -411,10 +417,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>0.4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -422,33 +434,20 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D11" s="1"/>

--- a/entradas.xlsx
+++ b/entradas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Insper\5-Semestre\TransCal\P2\TransCal-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D897A4-F39E-4C83-8B51-3723AA454457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791A099F-7236-4702-B736-226E785AA465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/entradas.xlsx
+++ b/entradas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Insper\5-Semestre\TransCal\P2\TransCal-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791A099F-7236-4702-B736-226E785AA465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC956723-9F3C-408B-BD1C-29FA78CD2494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +61,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,9 +95,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,13 +393,14 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -396,55 +421,58 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="D2" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>0.4</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+      <c r="D3" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>0.3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>0.4</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
+      <c r="D4" s="3">
+        <v>210000000000</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D5" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D10" s="1"/>
@@ -453,6 +481,7 @@
       <c r="D11" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/entradas.xlsx
+++ b/entradas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Insper\5-Semestre\TransCal\P2\TransCal-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC956723-9F3C-408B-BD1C-29FA78CD2494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77E23DD-05B7-475C-9639-2EC357FB9348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Nós</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Área</t>
+  </si>
+  <si>
+    <t>Tipo de Apoio</t>
   </si>
 </sst>
 </file>
@@ -390,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -403,7 +406,7 @@
     <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,8 +422,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -436,8 +442,11 @@
       <c r="E2" s="5">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -453,8 +462,11 @@
       <c r="E3" s="5">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -470,14 +482,17 @@
       <c r="E4" s="5">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D5" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D11" s="1"/>
     </row>
   </sheetData>

--- a/entradas.xlsx
+++ b/entradas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Insper\5-Semestre\TransCal\P2\TransCal-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77E23DD-05B7-475C-9639-2EC357FB9348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EA16C6-A84B-4768-9114-11A93C7C6F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -487,7 +487,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="2"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="1"/>

--- a/entradas.xlsx
+++ b/entradas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Insper\5-Semestre\TransCal\P2\TransCal-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EA16C6-A84B-4768-9114-11A93C7C6F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A56D7F-CFEC-4BF7-A4D1-45CF54C1945D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Nós</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Tipo de Apoio</t>
+  </si>
+  <si>
+    <t>Forças em X</t>
+  </si>
+  <si>
+    <t>Forças em Y</t>
   </si>
 </sst>
 </file>
@@ -393,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="F5" sqref="A5:F5"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -404,9 +410,11 @@
     <col min="2" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,8 +433,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -445,8 +459,14 @@
       <c r="F2" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -465,8 +485,14 @@
       <c r="F3" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -485,8 +511,14 @@
       <c r="F4" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" s="4">
+        <v>150</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -494,10 +526,10 @@
       <c r="E5" s="5"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D11" s="1"/>
     </row>
   </sheetData>

--- a/entradas.xlsx
+++ b/entradas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Insper\5-Semestre\TransCal\P2\TransCal-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A56D7F-CFEC-4BF7-A4D1-45CF54C1945D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7F1D72-35DB-4B9D-B610-BDA008C7C841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,7 +402,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/entradas.xlsx
+++ b/entradas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Insper\5-Semestre\TransCal\P2\TransCal-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7F1D72-35DB-4B9D-B610-BDA008C7C841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202DC65C-F6F4-47CA-880C-B5A7555904FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,12 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -402,7 +399,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I8" sqref="A7:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -441,90 +438,144 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
         <v>210000000000</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>2</v>
       </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
         <v>0.4</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>210000000000</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>0.3</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.4</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>210000000000</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
         <v>150</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>-100</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D5" s="2">
+        <v>210000000000</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="2">
+        <v>210000000000</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D10" s="1"/>

--- a/entradas.xlsx
+++ b/entradas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Insper\5-Semestre\TransCal\P2\TransCal-P2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enzod\OneDrive\Área de Trabalho\Insper\TransCal-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202DC65C-F6F4-47CA-880C-B5A7555904FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2D9C03-C242-4445-A127-85A9B5225E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,30 +25,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Nós</t>
-  </si>
-  <si>
-    <t>Coordenada X</t>
-  </si>
-  <si>
-    <t>Coordenada Y</t>
-  </si>
-  <si>
-    <t>Módulo de Elasticidade</t>
-  </si>
-  <si>
-    <t>Área</t>
-  </si>
-  <si>
-    <t>Tipo de Apoio</t>
-  </si>
-  <si>
-    <t>Forças em X</t>
-  </si>
-  <si>
-    <t>Forças em Y</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+  <si>
+    <t>Nos</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Elasticidade</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Fx</t>
+  </si>
+  <si>
+    <t>Fy</t>
+  </si>
+  <si>
+    <t>TipoApoio</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Incidencia2</t>
+  </si>
+  <si>
+    <t>Incidencia1</t>
+  </si>
+  <si>
+    <t>60*10^-6</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -104,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -116,6 +143,15 @@
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,22 +432,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="I8" sqref="A7:I8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,17 +464,23 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -450,8 +493,8 @@
       <c r="D2" s="2">
         <v>210000000000</v>
       </c>
-      <c r="E2" s="4">
-        <v>2.0000000000000001E-4</v>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="F2" s="3">
         <v>2</v>
@@ -462,8 +505,14 @@
       <c r="H2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -476,8 +525,8 @@
       <c r="D3" s="2">
         <v>210000000000</v>
       </c>
-      <c r="E3" s="4">
-        <v>2.0000000000000001E-4</v>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -488,10 +537,16 @@
       <c r="H3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>0.3</v>
@@ -502,8 +557,8 @@
       <c r="D4" s="2">
         <v>210000000000</v>
       </c>
-      <c r="E4" s="4">
-        <v>2.0000000000000001E-4</v>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -514,8 +569,14 @@
       <c r="H4" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -523,13 +584,13 @@
         <v>0.3</v>
       </c>
       <c r="C5" s="3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
         <v>210000000000</v>
       </c>
-      <c r="E5" s="4">
-        <v>2.0000000000000001E-4</v>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
@@ -540,8 +601,14 @@
       <c r="H5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -549,13 +616,13 @@
         <v>0.6</v>
       </c>
       <c r="C6" s="3">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D6" s="2">
         <v>210000000000</v>
       </c>
-      <c r="E6" s="4">
-        <v>2.0000000000000001E-4</v>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -566,8 +633,14 @@
       <c r="H6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -576,11 +649,23 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I8" s="5"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
     </row>
   </sheetData>

--- a/entradas.xlsx
+++ b/entradas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enzod\OneDrive\Área de Trabalho\Insper\TransCal-P2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Insper\5-Semestre\TransCal\P2\TransCal-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2D9C03-C242-4445-A127-85A9B5225E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BA5A1C-3E19-4EB3-A933-D661256B76ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Nos</t>
   </si>
@@ -51,28 +51,10 @@
     <t>TipoApoio</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Incidencia2</t>
   </si>
   <si>
     <t>Incidencia1</t>
-  </si>
-  <si>
-    <t>60*10^-6</t>
   </si>
   <si>
     <t/>
@@ -147,11 +129,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,23 +416,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,13 +458,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -493,8 +477,8 @@
       <c r="D2" s="2">
         <v>210000000000</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
+      <c r="E2">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F2" s="3">
         <v>2</v>
@@ -505,14 +489,14 @@
       <c r="H2" s="3">
         <v>0</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="8">
+      <c r="I2" s="9">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -520,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="D3" s="2">
         <v>210000000000</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
+      <c r="E3">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -537,28 +521,28 @@
       <c r="H3" s="3">
         <v>0</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="8">
+      <c r="I3" s="9">
+        <v>2</v>
+      </c>
+      <c r="J3" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>0.3</v>
+        <v>6.3E-2</v>
       </c>
       <c r="C4" s="3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
         <v>210000000000</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
+      <c r="E4">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -569,78 +553,36 @@
       <c r="H4" s="3">
         <v>-100</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="8">
+      <c r="I4" s="9">
+        <v>3</v>
+      </c>
+      <c r="J4" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>210000000000</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="D6" s="2">
-        <v>210000000000</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -651,22 +593,25 @@
       <c r="H7" s="3"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I8" s="5"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E9" s="9" t="s">
-        <v>16</v>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E9" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D10" s="1"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/entradas.xlsx
+++ b/entradas.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Insper\5-Semestre\TransCal\P2\TransCal-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BA5A1C-3E19-4EB3-A933-D661256B76ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C44239-1048-4989-ABA9-4B0DF21E003A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Nós e Coordenadas" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabela Elementos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Nos</t>
   </si>
@@ -58,13 +59,16 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Elementos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +96,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -113,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -135,6 +147,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,7 +438,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,138 +452,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>210000000000</v>
-      </c>
-      <c r="E2">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9">
-        <v>1</v>
-      </c>
-      <c r="J2" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="D3" s="2">
-        <v>210000000000</v>
-      </c>
-      <c r="E3">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9">
-        <v>2</v>
-      </c>
-      <c r="J3" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="B4" s="12">
         <v>6.3E-2</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>210000000000</v>
-      </c>
-      <c r="E4">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>150</v>
-      </c>
-      <c r="H4" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I4" s="9">
-        <v>3</v>
-      </c>
-      <c r="J4" s="7">
-        <v>1</v>
-      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -618,4 +581,134 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F98486-8381-4747-A4D7-1E11E58A1762}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>210000000000</v>
+      </c>
+      <c r="C2">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>210000000000</v>
+      </c>
+      <c r="C3">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>210000000000</v>
+      </c>
+      <c r="C4">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>150</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F4" s="9">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
+      <c r="B5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="B6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/entradas.xlsx
+++ b/entradas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Insper\5-Semestre\TransCal\P2\TransCal-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C44239-1048-4989-ABA9-4B0DF21E003A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215468C1-2033-47DC-B0AA-831B120AD99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nós e Coordenadas" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -155,6 +155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="A5:E5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -493,7 +494,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="12">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="D3" s="12">
         <v>1</v>
@@ -509,10 +510,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="12">
-        <v>6.3E-2</v>
+        <v>0.3</v>
       </c>
       <c r="C4" s="12">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D4" s="12">
         <v>0</v>
@@ -587,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F98486-8381-4747-A4D7-1E11E58A1762}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -627,8 +628,8 @@
       <c r="B2" s="2">
         <v>210000000000</v>
       </c>
-      <c r="C2">
-        <v>6.0000000000000002E-5</v>
+      <c r="C2" s="13">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -650,8 +651,8 @@
       <c r="B3" s="2">
         <v>210000000000</v>
       </c>
-      <c r="C3">
-        <v>6.0000000000000002E-5</v>
+      <c r="C3" s="13">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -673,8 +674,8 @@
       <c r="B4" s="2">
         <v>210000000000</v>
       </c>
-      <c r="C4">
-        <v>6.0000000000000002E-5</v>
+      <c r="C4" s="13">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D4" s="3">
         <v>150</v>

--- a/entradas.xlsx
+++ b/entradas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Insper\5-Semestre\TransCal\P2\TransCal-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215468C1-2033-47DC-B0AA-831B120AD99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A76339-10C2-4FD8-8450-7E672A7CA6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nós e Coordenadas" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -525,10 +525,18 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -589,7 +597,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -691,20 +699,50 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
-      <c r="B5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="7"/>
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>210000000000</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
-      <c r="B6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>210000000000</v>
+      </c>
+      <c r="C6" s="13">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>4</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J7" s="1"/>

--- a/entradas.xlsx
+++ b/entradas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Insper\5-Semestre\TransCal\P2\TransCal-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A76339-10C2-4FD8-8450-7E672A7CA6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A743F0A1-E9FE-4DD9-9997-E106A1064E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nós e Coordenadas" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Nos</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>Incidencia1</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Elementos</t>
@@ -125,12 +122,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -148,14 +142,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -453,137 +446,345 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="12">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12">
+      <c r="B2" s="10">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10">
         <v>2</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="7"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="12">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="B3" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="10">
         <v>0.4</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
         <v>1</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="C11" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="C15" s="10">
         <v>0.4</v>
       </c>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="C5" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="I8" s="5"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D10" s="1"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F12" s="1"/>
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -594,10 +795,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F98486-8381-4747-A4D7-1E11E58A1762}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -607,145 +808,695 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>210000000000</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0</v>
+      </c>
+      <c r="F2" s="11">
+        <v>1</v>
+      </c>
+      <c r="G2" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>210000000000</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2</v>
+      </c>
+      <c r="G3" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>210000000000</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>210000000000</v>
+      </c>
+      <c r="C5" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <v>4</v>
+      </c>
+      <c r="G5" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>210000000000</v>
+      </c>
+      <c r="C6" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>4</v>
+      </c>
+      <c r="G6" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>210000000000</v>
+      </c>
+      <c r="C7" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>4</v>
+      </c>
+      <c r="G7" s="11">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>210000000000</v>
+      </c>
+      <c r="C8" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>5</v>
+      </c>
+      <c r="G8" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>210000000000</v>
+      </c>
+      <c r="C9" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>6</v>
+      </c>
+      <c r="G9" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>210000000000</v>
+      </c>
+      <c r="C10" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>6</v>
+      </c>
+      <c r="G10" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>210000000000</v>
+      </c>
+      <c r="C11" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>6</v>
+      </c>
+      <c r="G11" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B12" s="11">
+        <v>210000000000</v>
+      </c>
+      <c r="C12" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
+        <v>6</v>
+      </c>
+      <c r="G12" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>210000000000</v>
+      </c>
+      <c r="C13" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>8</v>
+      </c>
+      <c r="G13" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>210000000000</v>
+      </c>
+      <c r="C14" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G14" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>210000000000</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>8</v>
+      </c>
+      <c r="G15" s="11">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>210000000000</v>
+      </c>
+      <c r="C16" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>210000000000</v>
+      </c>
+      <c r="C17" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>210000000000</v>
-      </c>
-      <c r="C2" s="13">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="9">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>210000000000</v>
-      </c>
-      <c r="C3" s="13">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9">
-        <v>2</v>
-      </c>
-      <c r="G3" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>210000000000</v>
-      </c>
-      <c r="C4" s="13">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D4" s="3">
-        <v>150</v>
-      </c>
-      <c r="E4" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F4" s="9">
-        <v>3</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>210000000000</v>
-      </c>
-      <c r="C5" s="13">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>3</v>
-      </c>
-      <c r="G5" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>210000000000</v>
-      </c>
-      <c r="C6" s="13">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
-        <v>4</v>
-      </c>
-      <c r="G6" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J7" s="1"/>
+      <c r="G17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>210000000000</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>210000000000</v>
+      </c>
+      <c r="C19" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>210000000000</v>
+      </c>
+      <c r="C20" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>210000000000</v>
+      </c>
+      <c r="C21" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>11</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>210000000000</v>
+      </c>
+      <c r="C22" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>210000000000</v>
+      </c>
+      <c r="C23" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>210000000000</v>
+      </c>
+      <c r="C24" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>210000000000</v>
+      </c>
+      <c r="C25" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>12</v>
+      </c>
+      <c r="G25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>210000000000</v>
+      </c>
+      <c r="C26" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>13</v>
+      </c>
+      <c r="G26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>210000000000</v>
+      </c>
+      <c r="C27" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>210000000000</v>
+      </c>
+      <c r="C28" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0</v>
+      </c>
+      <c r="F28" s="11">
+        <v>15</v>
+      </c>
+      <c r="G28" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>210000000000</v>
+      </c>
+      <c r="C29" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>15</v>
+      </c>
+      <c r="G29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>210000000000</v>
+      </c>
+      <c r="C30" s="11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>16</v>
+      </c>
+      <c r="G30">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/entradas.xlsx
+++ b/entradas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Insper\5-Semestre\TransCal\P2\TransCal-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A743F0A1-E9FE-4DD9-9997-E106A1064E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33D0C9A-F633-4C4C-B727-147B56A471DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nós e Coordenadas" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,7 +431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -797,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F98486-8381-4747-A4D7-1E11E58A1762}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -808,348 +808,348 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="11">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="11">
-        <v>210000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C2" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0</v>
-      </c>
-      <c r="F2" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="11">
-        <v>210000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C3" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="11">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="11">
-        <v>210000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C4" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="11">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="11">
-        <v>210000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C5" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0</v>
-      </c>
-      <c r="F5" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="11">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="11">
-        <v>210000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C6" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0</v>
-      </c>
-      <c r="F6" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="11">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="11">
-        <v>210000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C7" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0</v>
-      </c>
-      <c r="F7" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>4</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7">
         <v>5</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="11">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="11">
-        <v>210000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C8" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0</v>
-      </c>
-      <c r="F8" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="11">
-        <v>210000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C9" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D9" s="11">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>6</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="11">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="11">
-        <v>210000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C10" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>-600</v>
+      </c>
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="11">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="11">
-        <v>210000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C11" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>6</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="11">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="11">
-        <v>210000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C12" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0</v>
-      </c>
-      <c r="F12" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>6</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="11">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="11">
-        <v>210000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C13" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>8</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="11">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="11">
-        <v>210000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C14" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D14" s="11">
-        <v>0</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>5</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="11">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="11">
-        <v>210000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C15" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D15" s="11">
-        <v>0</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>8</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15">
         <v>9</v>
       </c>
     </row>
@@ -1158,15 +1158,15 @@
         <v>15</v>
       </c>
       <c r="B16" s="11">
-        <v>210000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C16" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D16" s="11">
-        <v>0</v>
-      </c>
-      <c r="E16" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
@@ -1181,15 +1181,15 @@
         <v>16</v>
       </c>
       <c r="B17" s="11">
-        <v>210000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C17" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D17" s="11">
-        <v>0</v>
-      </c>
-      <c r="E17" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
@@ -1204,15 +1204,15 @@
         <v>17</v>
       </c>
       <c r="B18" s="11">
-        <v>210000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C18" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D18" s="11">
-        <v>0</v>
-      </c>
-      <c r="E18" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
@@ -1227,15 +1227,15 @@
         <v>18</v>
       </c>
       <c r="B19" s="11">
-        <v>210000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C19" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D19" s="11">
-        <v>0</v>
-      </c>
-      <c r="E19" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
@@ -1246,19 +1246,19 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="11">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="11">
-        <v>210000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C20" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D20" s="11">
-        <v>0</v>
-      </c>
-      <c r="E20" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
@@ -1273,15 +1273,15 @@
         <v>20</v>
       </c>
       <c r="B21" s="11">
-        <v>210000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C21" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D21" s="11">
-        <v>0</v>
-      </c>
-      <c r="E21" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
@@ -1296,15 +1296,15 @@
         <v>21</v>
       </c>
       <c r="B22" s="11">
-        <v>210000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C22" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D22" s="11">
-        <v>0</v>
-      </c>
-      <c r="E22" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
@@ -1319,15 +1319,15 @@
         <v>22</v>
       </c>
       <c r="B23" s="11">
-        <v>210000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C23" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D23" s="11">
-        <v>0</v>
-      </c>
-      <c r="E23" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
@@ -1342,15 +1342,15 @@
         <v>23</v>
       </c>
       <c r="B24" s="11">
-        <v>210000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C24" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D24" s="11">
-        <v>0</v>
-      </c>
-      <c r="E24" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
@@ -1365,15 +1365,15 @@
         <v>24</v>
       </c>
       <c r="B25" s="11">
-        <v>210000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C25" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D25" s="11">
-        <v>0</v>
-      </c>
-      <c r="E25" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
@@ -1388,15 +1388,15 @@
         <v>25</v>
       </c>
       <c r="B26" s="11">
-        <v>210000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C26" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D26" s="11">
-        <v>0</v>
-      </c>
-      <c r="E26" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
@@ -1411,15 +1411,15 @@
         <v>26</v>
       </c>
       <c r="B27" s="11">
-        <v>210000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C27" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D27" s="11">
-        <v>0</v>
-      </c>
-      <c r="E27" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
@@ -1430,25 +1430,25 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="11">
+      <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="11">
-        <v>210000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C28" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D28" s="11">
-        <v>0</v>
-      </c>
-      <c r="E28" s="11">
-        <v>0</v>
-      </c>
-      <c r="F28" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>15</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28">
         <v>14</v>
       </c>
     </row>
@@ -1457,15 +1457,15 @@
         <v>28</v>
       </c>
       <c r="B29" s="11">
-        <v>210000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C29" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D29" s="11">
-        <v>0</v>
-      </c>
-      <c r="E29" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
@@ -1480,15 +1480,15 @@
         <v>29</v>
       </c>
       <c r="B30" s="11">
-        <v>210000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="C30" s="11">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D30" s="11">
-        <v>0</v>
-      </c>
-      <c r="E30" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">

--- a/entradas.xlsx
+++ b/entradas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Insper\5-Semestre\TransCal\P2\TransCal-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33D0C9A-F633-4C4C-B727-147B56A471DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9B4A4B-5655-43BF-997B-522A22C290C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,7 +432,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -795,10 +795,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F98486-8381-4747-A4D7-1E11E58A1762}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>-600</v>
+        <v>-1800</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -1496,6 +1496,144 @@
       </c>
       <c r="G30">
         <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>3000000000</v>
+      </c>
+      <c r="C31" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>3000000000</v>
+      </c>
+      <c r="C32" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>9</v>
+      </c>
+      <c r="G32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11">
+        <v>3000000000</v>
+      </c>
+      <c r="C33" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11">
+        <v>3000000000</v>
+      </c>
+      <c r="C34" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>12</v>
+      </c>
+      <c r="G34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="11">
+        <v>3000000000</v>
+      </c>
+      <c r="C35" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="11">
+        <v>3000000000</v>
+      </c>
+      <c r="C36" s="11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/entradas.xlsx
+++ b/entradas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Insper\5-Semestre\TransCal\P2\TransCal-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9B4A4B-5655-43BF-997B-522A22C290C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5576EAC7-79B3-4B12-A305-70145EF50783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nós e Coordenadas" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Nos</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>Elasticidade</t>
@@ -59,6 +53,12 @@
   </si>
   <si>
     <t>Elementos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X </t>
   </si>
 </sst>
 </file>
@@ -122,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -149,6 +149,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -450,13 +453,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F1" s="5"/>
     </row>
@@ -464,10 +467,10 @@
       <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10">
+      <c r="B2" s="12">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12">
         <v>0</v>
       </c>
       <c r="D2" s="10">
@@ -483,10 +486,10 @@
       <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="B3" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="C3" s="12">
         <v>0</v>
       </c>
       <c r="D3" s="10">
@@ -502,11 +505,11 @@
       <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.4</v>
+      <c r="B4" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="C4" s="12">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D4" s="10">
         <v>0</v>
@@ -521,10 +524,10 @@
       <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="B5" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C5" s="12">
         <v>0</v>
       </c>
       <c r="D5" s="10">
@@ -540,11 +543,11 @@
       <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0.6</v>
+      <c r="B6" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C6" s="12">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D6" s="10">
         <v>0</v>
@@ -559,10 +562,10 @@
       <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="B7" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C7" s="12">
         <v>0</v>
       </c>
       <c r="D7" s="10">
@@ -578,11 +581,11 @@
       <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0.8</v>
+      <c r="B8" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C8" s="12">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D8" s="10">
         <v>0</v>
@@ -594,10 +597,10 @@
       <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="B9" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C9" s="12">
         <v>0</v>
       </c>
       <c r="D9" s="10">
@@ -610,11 +613,11 @@
       <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.8</v>
+      <c r="B10" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C10" s="12">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D10" s="10">
         <v>0</v>
@@ -625,11 +628,11 @@
       <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="10">
-        <v>1</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0.8</v>
+      <c r="B11" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="C11" s="12">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D11" s="10">
         <v>0</v>
@@ -639,10 +642,10 @@
       <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="10">
-        <v>1</v>
-      </c>
-      <c r="C12" s="10">
+      <c r="B12" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="C12" s="12">
         <v>0</v>
       </c>
       <c r="D12" s="10">
@@ -654,11 +657,11 @@
       <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0.6</v>
+      <c r="B13" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C13" s="12">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D13" s="10">
         <v>0</v>
@@ -668,10 +671,10 @@
       <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="C14" s="10">
+      <c r="B14" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C14" s="12">
         <v>0</v>
       </c>
       <c r="D14" s="10">
@@ -682,11 +685,11 @@
       <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="10">
-        <v>1.4</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0.4</v>
+      <c r="B15" s="12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C15" s="12">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D15" s="10">
         <v>0</v>
@@ -696,10 +699,10 @@
       <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="10">
-        <v>1.4</v>
-      </c>
-      <c r="C16" s="10">
+      <c r="B16" s="12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C16" s="12">
         <v>0</v>
       </c>
       <c r="D16" s="10">
@@ -710,10 +713,10 @@
       <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="10">
-        <v>1.6</v>
-      </c>
-      <c r="C17" s="10">
+      <c r="B17" s="12">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C17" s="12">
         <v>0</v>
       </c>
       <c r="D17" s="10">
@@ -797,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F98486-8381-4747-A4D7-1E11E58A1762}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -809,25 +812,25 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">

--- a/entradas.xlsx
+++ b/entradas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Insper\5-Semestre\TransCal\P2\TransCal-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5576EAC7-79B3-4B12-A305-70145EF50783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEBFF2E-3C0F-4B92-A191-832DECAE17EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -531,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">

--- a/entradas.xlsx
+++ b/entradas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Insper\5-Semestre\TransCal\P2\TransCal-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEBFF2E-3C0F-4B92-A191-832DECAE17EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEB67AC-A3E8-49EE-B3E7-4752FA00BCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,6 +65,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,7 +152,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -435,12 +438,13 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
@@ -487,7 +491,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="12">
-        <v>2E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="C3" s="12">
         <v>0</v>
@@ -506,10 +510,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="12">
-        <v>2E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="C4" s="12">
-        <v>4.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D4" s="10">
         <v>0</v>
@@ -525,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12">
-        <v>4.0000000000000001E-3</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C5" s="12">
         <v>0</v>
@@ -544,10 +548,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="12">
-        <v>4.0000000000000001E-3</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C6" s="12">
-        <v>6.0000000000000001E-3</v>
+        <v>0.04</v>
       </c>
       <c r="D6" s="10">
         <v>0</v>
@@ -563,7 +567,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="12">
-        <v>6.0000000000000001E-3</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="C7" s="12">
         <v>0</v>
@@ -582,10 +586,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="12">
-        <v>6.0000000000000001E-3</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="C8" s="12">
-        <v>8.0000000000000002E-3</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D8" s="10">
         <v>0</v>
@@ -598,7 +602,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="12">
-        <v>8.0000000000000002E-3</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="C9" s="12">
         <v>0</v>
@@ -614,10 +618,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="12">
-        <v>8.0000000000000002E-3</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="C10" s="12">
-        <v>8.0000000000000002E-3</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D10" s="10">
         <v>0</v>
@@ -629,10 +633,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="12">
-        <v>0.01</v>
+        <v>0.216</v>
       </c>
       <c r="C11" s="12">
-        <v>8.0000000000000002E-3</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D11" s="10">
         <v>0</v>
@@ -643,7 +647,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="12">
-        <v>0.01</v>
+        <v>0.216</v>
       </c>
       <c r="C12" s="12">
         <v>0</v>
@@ -658,10 +662,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="12">
-        <v>1.2E-2</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="C13" s="12">
-        <v>6.0000000000000001E-3</v>
+        <v>0.04</v>
       </c>
       <c r="D13" s="10">
         <v>0</v>
@@ -672,7 +676,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="12">
-        <v>1.2E-2</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="C14" s="12">
         <v>0</v>
@@ -686,10 +690,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="12">
-        <v>1.4E-2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C15" s="12">
-        <v>4.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D15" s="10">
         <v>0</v>
@@ -700,7 +704,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="12">
-        <v>1.4E-2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C16" s="12">
         <v>0</v>
@@ -714,7 +718,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="12">
-        <v>1.6E-2</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="C17" s="12">
         <v>0</v>

--- a/entradas.xlsx
+++ b/entradas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Insper\5-Semestre\TransCal\P2\TransCal-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEB67AC-A3E8-49EE-B3E7-4752FA00BCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48689DE1-C1DB-4AD7-9494-E6CAE65EFCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nós e Coordenadas" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -152,7 +152,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -437,7 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -804,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F98486-8381-4747-A4D7-1E11E58A1762}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>-1800</v>
+        <v>-150</v>
       </c>
       <c r="F10">
         <v>6</v>

--- a/entradas.xlsx
+++ b/entradas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Insper\5-Semestre\TransCal\P2\TransCal-P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48689DE1-C1DB-4AD7-9494-E6CAE65EFCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2518EF-7693-4898-9C83-834E17E1C049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,12 +89,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -125,27 +119,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -438,7 +425,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -453,345 +440,437 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="10">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
         <v>1</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="6"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="9">
         <v>1.2E-2</v>
       </c>
-      <c r="C3" s="12">
-        <v>0</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
         <v>1</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="9">
         <v>1.2E-2</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="9">
         <v>0.02</v>
       </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="9">
         <v>2.7E-2</v>
       </c>
-      <c r="C5" s="12">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="6"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>2.7E-2</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <v>0.04</v>
       </c>
-      <c r="D6" s="10">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2"/>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="10">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="9">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="C7" s="12">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="4"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="10">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="9">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4"/>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="10">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="9">
         <v>0.14599999999999999</v>
       </c>
-      <c r="C9" s="12">
-        <v>0</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="I9" s="4"/>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="10">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>0.14599999999999999</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4"/>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-150</v>
+      </c>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="9">
         <v>0.216</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="9">
         <v>0.216</v>
       </c>
-      <c r="C12" s="12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1"/>
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="10">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="9">
         <v>0.26500000000000001</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="9">
         <v>0.04</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="10">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="9">
         <v>0.26500000000000001</v>
       </c>
-      <c r="C14" s="12">
-        <v>0</v>
-      </c>
-      <c r="D14" s="10">
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
         <v>1</v>
       </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="10">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="9">
         <v>0.02</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="10">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="9">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C16" s="12">
-        <v>0</v>
-      </c>
-      <c r="D16" s="10">
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="10">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="9">
         <v>0.29199999999999998</v>
       </c>
-      <c r="C17" s="12">
-        <v>0</v>
-      </c>
-      <c r="D17" s="10">
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -804,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F98486-8381-4747-A4D7-1E11E58A1762}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -824,12 +903,6 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
         <v>7</v>
       </c>
@@ -841,17 +914,11 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C2" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="B2" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C2" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -864,17 +931,11 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C3" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="B3" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C3" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -887,17 +948,11 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C4" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="B4" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C4" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -910,17 +965,11 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C5" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="B5" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C5" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -933,17 +982,11 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C6" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="B6" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C6" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -956,17 +999,11 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C7" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+      <c r="B7" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C7" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -980,17 +1017,11 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C8" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+      <c r="B8" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C8" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -1003,17 +1034,11 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C9" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+      <c r="B9" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C9" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -1026,17 +1051,11 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C10" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>-150</v>
+      <c r="B10" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C10" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -1049,17 +1068,11 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C11" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+      <c r="B11" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C11" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -1072,17 +1085,11 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C12" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="B12" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C12" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -1095,17 +1102,11 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C13" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+      <c r="B13" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C13" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -1118,17 +1119,11 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C14" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+      <c r="B14" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C14" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -1141,17 +1136,11 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C15" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+      <c r="B15" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C15" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F15">
         <v>8</v>
@@ -1164,17 +1153,11 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C16" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+      <c r="B16" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C16" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F16">
         <v>9</v>
@@ -1187,17 +1170,11 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C17" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+      <c r="B17" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C17" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -1210,17 +1187,11 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C18" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+      <c r="B18" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C18" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F18">
         <v>7</v>
@@ -1233,17 +1204,11 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C19" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+      <c r="B19" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C19" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F19">
         <v>8</v>
@@ -1256,17 +1221,11 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C20" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+      <c r="B20" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C20" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F20">
         <v>11</v>
@@ -1279,17 +1238,11 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C21" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+      <c r="B21" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C21" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F21">
         <v>11</v>
@@ -1302,17 +1255,11 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C22" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+      <c r="B22" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C22" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F22">
         <v>10</v>
@@ -1325,17 +1272,11 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C23" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+      <c r="B23" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C23" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F23">
         <v>11</v>
@@ -1348,17 +1289,11 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C24" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+      <c r="B24" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C24" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F24">
         <v>13</v>
@@ -1371,17 +1306,11 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C25" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+      <c r="B25" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C25" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F25">
         <v>12</v>
@@ -1394,17 +1323,11 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C26" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
+      <c r="B26" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C26" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F26">
         <v>13</v>
@@ -1417,17 +1340,11 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C27" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
+      <c r="B27" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C27" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F27">
         <v>13</v>
@@ -1440,17 +1357,11 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C28" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
+      <c r="B28" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C28" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F28">
         <v>15</v>
@@ -1463,17 +1374,11 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C29" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
+      <c r="B29" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C29" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F29">
         <v>15</v>
@@ -1486,17 +1391,11 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C30" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
+      <c r="B30" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C30" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F30">
         <v>16</v>
@@ -1509,17 +1408,11 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C31" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
+      <c r="B31" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C31" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F31">
         <v>6</v>
@@ -1532,17 +1425,11 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C32" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
+      <c r="B32" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C32" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F32">
         <v>9</v>
@@ -1555,17 +1442,11 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C33" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
+      <c r="B33" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C33" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F33">
         <v>10</v>
@@ -1578,17 +1459,11 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C34" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
+      <c r="B34" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C34" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F34">
         <v>12</v>
@@ -1601,17 +1476,11 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C35" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
+      <c r="B35" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C35" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F35">
         <v>4</v>
@@ -1624,17 +1493,11 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="11">
-        <v>3000000000</v>
-      </c>
-      <c r="C36" s="11">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
+      <c r="B36" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="C36" s="8">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="F36">
         <v>2</v>
